--- a/custom/icds/location_rationalization/tests/data/Location Rationalisation Bad.xlsx
+++ b/custom/icds/location_rationalization/tests/data/Location Rationalisation Bad.xlsx
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -196,6 +196,19 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -229,7 +242,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -323,22 +336,25 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1428,7 +1444,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2353,56 +2369,106 @@
       <c r="Z18" s="29"/>
     </row>
     <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="31">
-        <v>1</v>
-      </c>
-      <c r="B19" s="32">
-        <v>1</v>
-      </c>
-      <c r="C19" s="32">
+      <c r="A19" s="26">
+        <v>1</v>
+      </c>
+      <c r="B19" s="27">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27">
         <v>12</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="27">
         <v>12</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="27">
         <v>122</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="27">
         <v>122</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="9">
         <v>1221</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="9">
         <v>1212</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="9">
         <v>12211</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="9">
         <v>12121</v>
       </c>
-      <c r="K19" t="s" s="34">
+      <c r="K19" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="L19" t="s" s="34">
+      <c r="L19" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="36"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="29"/>
+    </row>
+    <row r="20" ht="13.65" customHeight="1">
+      <c r="A20" s="31">
+        <v>1</v>
+      </c>
+      <c r="B20" s="31">
+        <v>1</v>
+      </c>
+      <c r="C20" s="31">
+        <v>12</v>
+      </c>
+      <c r="D20" s="31">
+        <v>12</v>
+      </c>
+      <c r="E20" s="31">
+        <v>122</v>
+      </c>
+      <c r="F20" s="31">
+        <v>122</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1221</v>
+      </c>
+      <c r="H20" s="33">
+        <v>1221</v>
+      </c>
+      <c r="I20" s="33">
+        <v>12212</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="K20" t="s" s="35">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s" s="36">
+        <v>13</v>
+      </c>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/custom/icds/location_rationalization/tests/data/Location Rationalisation Bad.xlsx
+++ b/custom/icds/location_rationalization/tests/data/Location Rationalisation Bad.xlsx
@@ -43,7 +43,7 @@
     <t>new_awc</t>
   </si>
   <si>
-    <t>transition</t>
+    <t>operation</t>
   </si>
   <si>
     <t>Notes</t>
@@ -97,7 +97,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,7 +106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -134,6 +134,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -145,20 +151,20 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -175,7 +181,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -183,10 +189,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -194,25 +200,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -221,18 +227,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -249,10 +255,34 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -261,49 +291,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -336,25 +327,40 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -374,6 +380,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffefefef"/>
       <rgbColor rgb="ffe06666"/>
@@ -578,12 +585,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -616,10 +623,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -867,12 +874,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1187,10 +1194,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
